--- a/src/DID-URL-Low-level-Use Cases 0.1.xlsx
+++ b/src/DID-URL-Low-level-Use Cases 0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INDY\did-url-spec\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05CC5DD-362C-4B0C-9B86-FAA36D72AF32}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5940387F-C3BB-4A28-BFA5-3E62157D138A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{55C97778-1C7A-4748-8CBF-F07099F47EAB}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="167">
   <si>
     <t>did:xyz:1234</t>
   </si>
@@ -54,24 +54,12 @@
     <t>A. DID Document Resolution and Dereferencing Use Cases</t>
   </si>
   <si>
-    <t>did:xyz:1234#key1</t>
-  </si>
-  <si>
-    <t>http://uniresolver.io/did:xyz:1234#key1</t>
-  </si>
-  <si>
     <t>Dereferencing to return a JSON component (fragment) of a DID Doc</t>
   </si>
   <si>
     <t>2a</t>
   </si>
   <si>
-    <t>did:xyz:1234;bops</t>
-  </si>
-  <si>
-    <t>http://uniresolver.io/did:xyz:1234;bops</t>
-  </si>
-  <si>
     <t>Dereferencing a service-id to return the JSON description (fragment) of the service endpoint.</t>
   </si>
   <si>
@@ -150,12 +138,6 @@
     <t>C. DID Document Operations Use Cases</t>
   </si>
   <si>
-    <t>did:xyz:1234;bops?$exists</t>
-  </si>
-  <si>
-    <t>http://uniresolver.io/did:xyz:1234;bops?$exists</t>
-  </si>
-  <si>
     <t>Does this DID Doc contain a service endpoint corresponding to a particular service-idresolvable by this DID Resolver</t>
   </si>
   <si>
@@ -165,132 +147,57 @@
     <t>D. DID Document Collection Operations Use Cases</t>
   </si>
   <si>
-    <t>did:xyz:1234?$exists</t>
-  </si>
-  <si>
-    <t>http://uniresolver.io/did:xyz:1234?$exists</t>
-  </si>
-  <si>
     <t>Does this DID Doc exist/is resolvable by this DID Resolver</t>
   </si>
   <si>
-    <t>did:xyz:1234#key1?$exists</t>
-  </si>
-  <si>
-    <t>http://uniresolver.io/did:xyz:1234#key1?$exists</t>
-  </si>
-  <si>
     <t>Does this DID Doc fragment exist/is resolvable by this DID Resolver</t>
   </si>
   <si>
     <t>4a</t>
   </si>
   <si>
-    <t>did:?</t>
-  </si>
-  <si>
-    <t>http://uniresolver.io/did:?</t>
-  </si>
-  <si>
     <t>Return all of the DID Docs available to the DID Resolver</t>
   </si>
   <si>
-    <t>did:xyz:?</t>
-  </si>
-  <si>
-    <t>http://uniresolver.io/did:xyz:?</t>
-  </si>
-  <si>
     <t>Return all of the DID Docs available to the DID Resolver for a particular DID method</t>
   </si>
   <si>
-    <t>did:xyz:?$top=10&amp;$skip=100</t>
-  </si>
-  <si>
-    <t>http://uniresolver.io/did:xyz:?$top=10&amp;$skip=100</t>
-  </si>
-  <si>
     <t>Return a batch of DID Docs available to the DID Resolver for a particular DID method</t>
   </si>
   <si>
-    <t>did:xyz:?$filter="&lt;filterexpression&gt;"&amp;$top=10&amp;$skip=100</t>
-  </si>
-  <si>
-    <t>http://uniresolver.io/did:xyz:?$filter="&lt;filterexpression&gt;"&amp;$top=10&amp;$skip=100</t>
-  </si>
-  <si>
     <t>Return a filtered batch of DID Docs available to the DID Resolver for a particular DID method</t>
   </si>
   <si>
-    <t>did:xyz:?&amp;$top=10&amp;$skip=100&amp;$select="&lt;selectexpression&gt;"</t>
-  </si>
-  <si>
     <t>Return a filtered batch of DID Docs that only contain a selected subset of the DID Doc's components (fragments/attributes) for a particular DID method available from a particular DID Resolver</t>
   </si>
   <si>
     <t>E. DID Resolver Service Operations Use Cases</t>
   </si>
   <si>
-    <t>did:?$ping</t>
-  </si>
-  <si>
-    <t>http://uniresolver.io/did:?$ping</t>
-  </si>
-  <si>
     <t>Is the particular DID Resolver Service alive and responsive</t>
   </si>
   <si>
-    <t>did:?$getMethods</t>
-  </si>
-  <si>
-    <t>http://uniresolver.io/did:?$getMethods</t>
-  </si>
-  <si>
     <t>Return list of DID methods resolvable by this DID Resolver</t>
   </si>
   <si>
-    <t>did:xyz:?$supportedCapabilities</t>
-  </si>
-  <si>
-    <t>http://uniresolver.io/did:xyz:?$supportedCapabilities</t>
-  </si>
-  <si>
     <t>Return a list of capabilities supported by a particular DID method resolvable by this DID Resolver</t>
   </si>
   <si>
     <t>F. DID Resolver Service Response Format Use Cases</t>
   </si>
   <si>
-    <t>did:xyz:1234?$format="json"</t>
-  </si>
-  <si>
-    <t>http://uniresolver.io/did:xyz:1234?$format="json"</t>
-  </si>
-  <si>
     <t>Resolution to return an entire DID Doc in JSON format</t>
   </si>
   <si>
     <t>15a</t>
   </si>
   <si>
-    <t>did:xyz:1234?$format="atom"</t>
-  </si>
-  <si>
-    <t>http://uniresolver.io/did:xyz:1234?$format="atom"</t>
-  </si>
-  <si>
     <t>Resolution to return an entire DID Doc in ATOM format</t>
   </si>
   <si>
     <t>15b</t>
   </si>
   <si>
-    <t>did:xyz:1234?$format="xml"</t>
-  </si>
-  <si>
-    <t>http://uniresolver.io/did:xyz:1234?$format="xml"</t>
-  </si>
-  <si>
     <t>Resolution to return an entire DID Doc in XML format</t>
   </si>
   <si>
@@ -300,12 +207,6 @@
     <t>G. DID Resolution Decode/Decrypt Use Cases</t>
   </si>
   <si>
-    <t>did:xyz:1234?$decode="&lt;parameters&gt;"</t>
-  </si>
-  <si>
-    <t>http://uniresolver.io/ did:xyz:1234?$decode="&lt;parameters&gt;"</t>
-  </si>
-  <si>
     <t>Resolution to return an entire DID Doc with "decoding" parameters</t>
   </si>
   <si>
@@ -315,33 +216,15 @@
     <t>16b</t>
   </si>
   <si>
-    <t>did:xyz:1234?$decrypt="&lt;key&gt;"</t>
-  </si>
-  <si>
-    <t>http://uniresolver.io/ did:xyz:1234?$decrypt="&lt;key&gt;"</t>
-  </si>
-  <si>
     <t>Resolution to return an entire DID Doc with "decrypting" parameters</t>
   </si>
   <si>
-    <t>did:xyz:1234!$serviceid="bops"?</t>
-  </si>
-  <si>
-    <t>http://uniresolver.io/did:xyz:1234!$serviceid="bops"?</t>
-  </si>
-  <si>
     <t>2c2</t>
   </si>
   <si>
     <t>Transform the DID URL using corresponding service endpoint using "!" transformer (pipe) character and $serviceid transformation option (no parameters)</t>
   </si>
   <si>
-    <t>did:xyz:1234/foo/bar?a=1#flip!$serviceid="bops"</t>
-  </si>
-  <si>
-    <t>http://uniresolver.io/did:xyz:1234did:xyz:1234/foo/bar?a=1#flip!serviceid="bops"</t>
-  </si>
-  <si>
     <t>Transform the DID URL using corresponding service endpoint using "!" pipe character and $serviceid transformation option (w/parameters)</t>
   </si>
   <si>
@@ -409,6 +292,251 @@
   </si>
   <si>
     <t>Both of the above resolve (dereference) to the same URI/URL: https://example.com/endpoint/8377464/foo/bar?a=1#flip</t>
+  </si>
+  <si>
+    <t>Dereferencing a service-idto return the JSON description (fragment) of the service endpoint.</t>
+  </si>
+  <si>
+    <t>2b2</t>
+  </si>
+  <si>
+    <t>4b2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+did:xyz:1234!$serviceId="bops"
+did:xyz:1234!$serviceid="exam_svc"/foo/bar?a=1#flip
+</t>
+  </si>
+  <si>
+    <t>did:xyz:1234!$contentId="hl:zQmWvQxTqbG2Z9HPJgG57jjwR154cKhbtJenbyYTWkjgF3e"</t>
+  </si>
+  <si>
+    <t>Dereferencing to return a JSON component (fragment) of a Content Document (e.g. Hashlink) associated with a contentid</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:xyz:1234!$contentId="hl:zQmWvQxTqbG2Z9HPJgG57jjwR154cKhbtJenbyYTWkjgF3e"</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "id": "did:sov:HR6vs6GEZ8rHaVgjg2WodM",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "service": [],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "authentication": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "type": "Ed25519SignatureAuthentication2018",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "publicKey": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "did:sov:HR6vs6GEZ8rHaVgjg2WodM#key-1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "publicKey": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "id": "did:sov:HR6vs6GEZ8rHaVgjg2WodM#key-1",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "type": "Ed25519VerificationKey2018",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "publicKeyBase58": "~VMZDS6JkbUvxibhqr6cbT2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "@context": "https://w3id.org/did/v1"</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference: </t>
+  </si>
+  <si>
+    <t>https://uniresolver.io/#did=did:sov:HR6vs6GEZ8rHaVgjg2WodM</t>
+  </si>
+  <si>
+    <t>did:xyz:1234!$exists="bops"</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:xyz:1234did:xyz:1234!$exists="bops"</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:xyz:1234!$serviceid="bops"?
+http://uniresolver.io/did:xyz:1234!$serviceid="exam_svc"/foo/bar?a=1#flip</t>
+  </si>
+  <si>
+    <t>did:xyz:1234!$serviceid="bops"/foo/bar?a=1#flip</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:xyz:1234!serviceid="bops"/foo/bar?a=1#flip</t>
+  </si>
+  <si>
+    <t>I. DID URL Service Endpoint Dereferencing Use Cases (using "$select" selectoroption)</t>
+  </si>
+  <si>
+    <t>did:xyz:1234!$selectId="bops"</t>
+  </si>
+  <si>
+    <t>did:xyz:1234!$selectId="bops"&amp;$exists</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:xyz:1234!$selectId="bops"</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:xyz:1234!$selectId="bops"&amp;$exists</t>
+  </si>
+  <si>
+    <t>did:xyz:1234#key1
+did:xyz:1234!$selectId="key1"</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:xyz:1234#key1
+http://uniresolver.io/did:xyz:1234!$selectId="key1"</t>
+  </si>
+  <si>
+    <t>did:xyz:1234;bops
+did:xyz:1234!$selectId="bops"</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:xyz:1234;bops
+http://uniresolver.io/did:xyz:1234!$selectId="bops"</t>
+  </si>
+  <si>
+    <t>ping</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/ping</t>
+  </si>
+  <si>
+    <t>did:!$getMethods</t>
+  </si>
+  <si>
+    <t>did:xyz:!$supportedCapabilities</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:!$getMethods</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:xyz:!$supportedCapabilities</t>
+  </si>
+  <si>
+    <t>did:xyz:1234!$format="json"</t>
+  </si>
+  <si>
+    <t>did:xyz:1234!$format="atom"</t>
+  </si>
+  <si>
+    <t>did:xyz:1234!$format="xml"</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:xyz:1234!$format="json"</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:xyz:1234!$format="atom"</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:xyz:1234!$format="xml"</t>
+  </si>
+  <si>
+    <t>did:xyz:1234!$decode="&lt;parameters&gt;"</t>
+  </si>
+  <si>
+    <t>did:xyz:1234!$decrypt="&lt;key&gt;"</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/ did:xyz:1234!$decode="&lt;parameters&gt;"</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/ did:xyz:1234!$decrypt="&lt;key&gt;"</t>
+  </si>
+  <si>
+    <t>16c</t>
+  </si>
+  <si>
+    <t>16d</t>
+  </si>
+  <si>
+    <t>Resolution to return an entire DID Doc with "encoding" parameters</t>
+  </si>
+  <si>
+    <t>Resolution to return an entire DID Doc with "encrypting" parameters</t>
+  </si>
+  <si>
+    <t>did:xyz:1234!$encode="&lt;parameters&gt;"</t>
+  </si>
+  <si>
+    <t>did:xyz:1234!$encrypt="&lt;key&gt;"</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/ did:xyz:1234!$encode="&lt;parameters&gt;"</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/ did:xyz:1234!$encrypt="&lt;key&gt;"</t>
+  </si>
+  <si>
+    <t>did:xyz:1234!$exists</t>
+  </si>
+  <si>
+    <t>did:xyz:1234#key1!$exists</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:xyz:1234!$exists</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:xyz:1234#key1!$exists</t>
+  </si>
+  <si>
+    <t>did:!$getDocuments</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:!$getDocuments</t>
+  </si>
+  <si>
+    <t>did:xyz:!$getDocuments</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:xyz:!$getDocuments</t>
+  </si>
+  <si>
+    <t>did:xyz:!$getDocuments&amp;$top=10&amp;$skip=100</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:xyz:!getDocuments&amp;$top=10&amp;$skip=100</t>
+  </si>
+  <si>
+    <t>did:xyz:!getDocuments&amp;$filter="&lt;filterexpression&gt;"&amp;$top=10&amp;$skip=100</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:xyz:!getDocuments$filter="&lt;filterexpression&gt;"&amp;$top=10&amp;$skip=100</t>
+  </si>
+  <si>
+    <t>did:xyz:!&amp;getDocuments&amp;$top=10&amp;$skip=100&amp;$select="&lt;selectexpression&gt;"</t>
+  </si>
+  <si>
+    <t>http://uniresolver.io/did:xyz:!&amp;getDocuments&amp;$top=10&amp;$skip=100&amp;$select="&lt;selectexpression&gt;"</t>
   </si>
 </sst>
 </file>
@@ -426,14 +554,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -484,6 +604,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -516,30 +643,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -549,19 +652,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,472 +999,544 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA45131C-D45A-4CCB-AB34-792AD348A4B4}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="8"/>
+    <col min="3" max="3" width="70.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="87.7109375" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>8</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>11</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>7</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>5</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>6</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>11</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="C49" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A47:D47"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1363,42 +1558,42 @@
   <sheetData>
     <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1408,14 +1603,119 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BB1D93-FF88-4C1B-8BB8-02181B672C23}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="59" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1433,112 +1733,112 @@
     <col min="1" max="1" width="65.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
